--- a/backend/em1_nat.xlsx
+++ b/backend/em1_nat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degle\Google Drive\Hep Tool\Django_AnalysisTool\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA73AE-5A1E-4F86-A1FB-270AFDD619B1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="6" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="82">
   <si>
     <t>HCC</t>
   </si>
@@ -302,6 +303,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Viral Suppresion CHB</t>
   </si>
 </sst>
 </file>
@@ -703,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFB8956-2854-4AF1-8456-FE2920426C86}">
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -819,6 +823,9 @@
       </c>
       <c r="AF1" t="s">
         <v>12</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
@@ -2316,6 +2323,17 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
     </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2324,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77043072-7561-4A8D-A6F0-FE15417FB6ED}">
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2440,6 +2458,9 @@
       </c>
       <c r="AF1" t="s">
         <v>12</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3741,6 +3762,14 @@
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3751,7 +3780,7 @@
   <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B202" sqref="A1:B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5084,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6877CA1F-4ED8-4563-99F4-4B4E57F936BB}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
